--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +328,45 @@
   </si>
   <si>
     <t>MCH,LK,NCFW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị cháy led memory</t>
+  </si>
+  <si>
+    <t>Thay led memory</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn 4v4</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14040</t>
+  </si>
+  <si>
+    <t>Cháy led memory</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180404</t>
   </si>
 </sst>
 </file>
@@ -739,7 +778,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,21 +815,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1117,43 +1156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1198,58 +1237,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1313,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,7 +1383,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1401,7 +1440,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1469,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1498,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1488,7 +1527,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1556,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1546,7 +1585,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1577,7 +1616,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +1645,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1674,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1703,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2895,13 +2934,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2913,6 +2945,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2956,43 +2995,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -3037,58 +3076,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3113,23 +3152,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3183,7 +3222,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3242,7 +3281,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3271,7 +3310,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3300,7 +3339,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3329,7 +3368,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3358,7 +3397,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3426,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3418,7 +3457,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3447,7 +3486,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3476,7 +3515,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3505,7 +3544,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4736,13 +4775,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4754,6 +4786,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4765,7 +4804,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4797,43 +4836,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -4878,58 +4917,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4954,23 +4993,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5022,7 +5061,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5083,7 +5122,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5140,7 +5179,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5195,7 +5234,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5224,7 +5263,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5253,7 +5292,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5282,7 +5321,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5313,7 +5352,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5342,7 +5381,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5371,7 +5410,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5400,7 +5439,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6631,13 +6670,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6649,6 +6681,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6659,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6692,43 +6731,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -6773,58 +6812,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6849,23 +6888,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6887,19 +6926,35 @@
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6926,19 +6981,37 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6963,19 +7036,35 @@
         <v>64</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="40"/>
+      <c r="I8" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7000,19 +7089,37 @@
         <v>64</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7036,20 +7143,38 @@
       <c r="G10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
+      <c r="H10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="L10" s="63"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7074,19 +7199,35 @@
         <v>64</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
+      <c r="I11" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7123,7 +7264,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7162,7 +7303,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7199,7 +7340,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7236,7 +7377,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7265,7 +7406,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7384,7 +7525,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7416,7 +7557,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7661,7 +7802,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7725,7 +7866,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7853,7 +7994,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7917,7 +8058,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8496,13 +8637,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8514,6 +8648,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8557,43 +8698,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -8638,58 +8779,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8714,23 +8855,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8764,7 +8905,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8803,7 +8944,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8832,7 +8973,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8861,7 +9002,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8890,7 +9031,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8919,7 +9060,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8948,7 +9089,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8979,7 +9120,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9008,7 +9149,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9037,7 +9178,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9066,7 +9207,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10297,13 +10438,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10315,6 +10449,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10358,43 +10499,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10439,58 +10580,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -10515,23 +10656,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10557,7 +10698,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10588,7 +10729,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10617,7 +10758,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10646,7 +10787,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10675,7 +10816,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10704,7 +10845,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10733,7 +10874,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10764,7 +10905,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10793,7 +10934,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10822,7 +10963,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10851,7 +10992,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12082,6 +12223,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12093,13 +12241,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_AnhTuanBG.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -367,6 +367,39 @@
   </si>
   <si>
     <t>SE.3.00.---02.180404</t>
+  </si>
+  <si>
+    <t>SE.2.03.00006.261115</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn 3v3</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn 3v3, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>B.2.27B</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14848</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>18/11/21</t>
   </si>
 </sst>
 </file>
@@ -778,22 +811,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,6 +833,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1157,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1156,43 +1189,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1237,58 +1270,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1313,23 +1346,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1416,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1440,7 +1473,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1502,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1531,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1527,7 +1560,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1589,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +1618,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1616,7 +1649,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1678,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1707,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1736,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2934,6 +2967,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2945,13 +2985,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2995,43 +3028,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -3076,58 +3109,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3152,23 +3185,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3222,7 +3255,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3281,7 +3314,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3310,7 +3343,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3339,7 +3372,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3368,7 +3401,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3397,7 +3430,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3426,7 +3459,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3457,7 +3490,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3486,7 +3519,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3515,7 +3548,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3544,7 +3577,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4775,6 +4808,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4786,13 +4826,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4803,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4836,43 +4869,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -4917,58 +4950,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4993,23 +5026,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5061,7 +5094,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5122,7 +5155,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5135,7 +5168,9 @@
       <c r="B8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>67</v>
       </c>
@@ -5179,7 +5214,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5234,7 +5269,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5263,7 +5298,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5292,7 +5327,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5321,7 +5356,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5352,7 +5387,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5381,7 +5416,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5410,7 +5445,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5439,7 +5474,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6670,6 +6705,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6681,13 +6723,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6698,8 +6733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6731,43 +6766,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -6812,58 +6847,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6888,23 +6923,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6914,7 +6949,9 @@
       <c r="B6" s="37">
         <v>44480</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
@@ -6954,7 +6991,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6969,7 +7006,9 @@
       <c r="B7" s="37">
         <v>44480</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>65</v>
       </c>
@@ -7011,7 +7050,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7024,7 +7063,9 @@
       <c r="B8" s="37">
         <v>44480</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>65</v>
       </c>
@@ -7064,7 +7105,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7077,7 +7118,9 @@
       <c r="B9" s="37">
         <v>44480</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>65</v>
       </c>
@@ -7119,7 +7162,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7132,7 +7175,9 @@
       <c r="B10" s="37">
         <v>44480</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>65</v>
       </c>
@@ -7174,7 +7219,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7187,7 +7232,9 @@
       <c r="B11" s="37">
         <v>44480</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>65</v>
       </c>
@@ -7227,7 +7274,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7240,31 +7287,53 @@
       <c r="B12" s="37">
         <v>44480</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="39">
-        <v>866762029426481</v>
+        <v>866104024722095</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="H12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7279,31 +7348,53 @@
       <c r="B13" s="37">
         <v>44480</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="39">
-        <v>866104024722095</v>
-      </c>
-      <c r="F13" s="38"/>
+        <v>862631034704824</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="G13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7316,31 +7407,49 @@
       <c r="B14" s="37">
         <v>44480</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="39">
-        <v>862631034704824</v>
+        <v>866104028883539</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7350,26 +7459,18 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
-        <v>44480</v>
-      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="39">
-        <v>866104028883539</v>
-      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="G15" s="38"/>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="40"/>
       <c r="P15" s="1"/>
@@ -7377,7 +7478,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7406,7 +7507,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7525,7 +7626,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7557,7 +7658,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7802,7 +7903,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7994,7 +8095,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8058,7 +8159,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8637,6 +8738,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8648,13 +8756,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8665,8 +8766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8698,43 +8799,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -8779,58 +8880,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8855,23 +8956,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,7 +8982,9 @@
       <c r="B6" s="37">
         <v>44480</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>68</v>
       </c>
@@ -8893,19 +8996,35 @@
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8920,7 +9039,9 @@
       <c r="B7" s="37">
         <v>44480</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>68</v>
       </c>
@@ -8932,19 +9053,35 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="66"/>
+      <c r="I7" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>113</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8954,26 +9091,50 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44480</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="39">
+        <v>866762029426481</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="58"/>
+      <c r="I8" s="58" t="s">
+        <v>81</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9002,7 +9163,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9031,7 +9192,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9060,7 +9221,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9089,7 +9250,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9120,7 +9281,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9149,7 +9310,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9178,7 +9339,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9207,7 +9368,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9326,7 +9487,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -9358,7 +9519,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9603,7 +9764,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -9795,7 +9956,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -9827,7 +9988,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -9859,7 +10020,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10438,6 +10599,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10449,16 +10617,9 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="170" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10499,43 +10660,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10580,58 +10741,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -10656,23 +10817,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10698,7 +10859,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10729,7 +10890,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10758,7 +10919,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10787,7 +10948,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10816,7 +10977,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10845,7 +11006,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10874,7 +11035,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10905,7 +11066,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10934,7 +11095,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10963,7 +11124,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10992,7 +11153,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12223,13 +12384,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12241,6 +12395,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
